--- a/十五至尊图.xlsx
+++ b/十五至尊图.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14897" activeTab="1"/>
+    <workbookView windowWidth="16457" windowHeight="14751" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="十五至尊图" sheetId="1" r:id="rId1"/>
     <sheet name="细节" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="244">
   <si>
     <t>启动过程组</t>
   </si>
@@ -198,6 +200,11 @@
   </si>
   <si>
     <t>控制干系人参与</t>
+  </si>
+  <si>
+    <t>控制过程组均有：
+1. 变更请求
+2. 项目文 件更新或更新</t>
   </si>
   <si>
     <t>十大领域均有</t>
@@ -256,6 +263,214 @@
     <t>项目管理计划</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13个子计划：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 范围管理计划（范围管理）
+2. 需求管理计划（范围管理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 进度管理计划（进度管理）
+4. 成本管理计划（成本管理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 质量管理计划（质量管理）
+6. 过程改进计划（质量管理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+7. 人力资源管理计划（资源管理）
+8. 沟通管理计划（沟通管理）
+9. 风险管理计划（风险管理）
+10.采购管理计划（采购管理）
+11. 干系人管理计划等（干系人管理）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12. 变更管理计划
+13. 配置管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三大基准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 范围基准
+2. 成本绩效基准
+3. 进度基准 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">一、项目管理计划：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  a. 综合性的计划，
+  b. 制订项目管理计划需要各干系人的参与(全员参与)、逐步精确(迭代)、由下至上，项目经理整合，行成综合的， 整体项止管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+二、主要用途：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 指导项目执行， 监控和收尾
+2. 为项目绩效考核和项目控制提供基准
+3. 记录制定项目计划所依据的假设条件
+4. 记录制定项目计划过程中的有关方案选择
+5. 促进项目干系人之间的沟通
+6. 规定管理层审查项目的时间， 内容和方式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">项目管理计划的内容
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 所有使用的项目管理过程
+2. 每个特定项目管理过程的实施程度
+3. 完成这些过程的工具和技术的描述
+4. 项目所选用的生命周期及各阶段将采用的过程
+5. 如何用选定的过程来管理具体的项目，包括过程之间的依赖与交互关系和基本的输入和输出
+6. 如何执行工作来完成项目目标及对项目目标的描述
+7. 如何监督和控制变更，明确如何对变更进行监控
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置管理计划，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来明确如何开展配置管理
+9. 对维护项目绩效基线的完整性的说明
+10. 与项目干系人进么沟通的要求和技术。
+11. 为项目选择生命周期模型
+12. 为解决某些遗留问题和未定的决策，对于其内容，严重程度和紧迫程度进行关键管理证明审。</t>
+    </r>
+  </si>
+  <si>
     <t>1、项目管理计划
 2、批准的变更请求
 3、事业环境因素
@@ -267,11 +482,40 @@
 3、会议</t>
   </si>
   <si>
-    <t>1、可交付的成果
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可交付的成果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、工作绩效数据
 3、变更请求
 4、项目管理计划的更新
 5、项目文件更新</t>
+    </r>
   </si>
   <si>
     <t>监控项目工作</t>
@@ -286,10 +530,37 @@
 7、组织过程资源</t>
   </si>
   <si>
-    <t>1、专家判断
-2、分析技术
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、专家判断
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、分析技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、项目管理信息系统
 4、会议</t>
+    </r>
   </si>
   <si>
     <t>1、变更请求
@@ -323,9 +594,38 @@
     <t>结束项目或阶段</t>
   </si>
   <si>
-    <t>1、项目管理计划
-2、验收的可交付成果
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、项目管理计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、验收的可交付成果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、组织过程资源</t>
+    </r>
   </si>
   <si>
     <t>1、专家判断
@@ -351,11 +651,30 @@
 2、需求管理计划</t>
   </si>
   <si>
-    <t>1、范围管理计划
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、范围管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、需求管理计划
 3、干系人管理计划
 4、项目章程
 5、干系人登记册</t>
+    </r>
   </si>
   <si>
     <t>1、访谈
@@ -366,19 +685,292 @@
 6、问卷调查
 7、观察
 8、原型法
-9、标干对照 
+9、标杆对照 
 10.系统交互图
 11.文件分析</t>
   </si>
   <si>
-    <t>1、需求分析
+    <t>1、需求文件
 2、需求跟踪矩阵</t>
   </si>
   <si>
-    <t>1、范围管理计划
-2、项目章程
-3、需求文件
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群体创新技术：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 头脑风暴法
+2. 名议小组技术
+3. 概念、思维导图
+4. 亲和图
+5. 多标准决策分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群体决策技术：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 一致同意
+2. 大多数原则
+3. 相对多数原则
+4. 独裁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标杆对照 ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与其它类似组织的做法进行比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+系统交互图： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人机交互，系统间交互，显示了业务系统的输入，输出提供者； 业务系统的输出，输出接收者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求文件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 业务需求
+2. 干系人需求
+3. 解决方案需求
+4. 项目需求
+5. 过渡需求
+6. 与需求有关的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设条件， 依赖关系和制约因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">需求跟踪矩阵：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 业务需要，机会，目的和目标
+2. 项目目标
+3. 项目范围/wbs可交付成果
+4. 产品设计
+5. 产品开发
+6.测试策略和测试场景
+7.高层级需求的详细需求
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解释：需求 -&gt;需求文件-&gt;产品，三者相互关联，推演</t>
+    </r>
+  </si>
+  <si>
+    <t>定义范围</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、范围管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、项目章程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、需求文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4、组织过程资产</t>
+    </r>
   </si>
   <si>
     <t>1、专家判断
@@ -387,50 +979,624 @@
 4、引导式研讨会</t>
   </si>
   <si>
-    <t>1、项目范围说明书
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、项目范围说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、项目文件更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目范围说明书：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 项目目标
+2. 产品范围描述
+3. 项目需求
+4. 项目边界
+5. 项目可交付成果
+6. 项目的制约因素
+7. 假设条件</t>
+    </r>
   </si>
   <si>
     <t>创建工作分解结果（WBS）</t>
   </si>
   <si>
-    <t>1、项目管理计划
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、项目管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、项目范围说明书
 3、需求文件
 4、事业环境因素
 5、组织过程资产</t>
+    </r>
   </si>
   <si>
     <t>1、分解
 2、专家判断</t>
   </si>
   <si>
-    <t>1、范围基准
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、范围基准</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、项目文件更新</t>
-  </si>
-  <si>
-    <t>1、项目管理计划
-2、需求文件
-3、需求跟踪矩阵
-4、核实的可交付成果
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建WBS：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将项止可交付成果和项目工作分解成较小的，更易于管理的组件过程
+对所需要交付的内容提供一个结构化的视图</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WBS的最小单位：工作包
+8/80原则：最小8小时，最长80小时
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作包：是WBS的最小单位
+活动：是项目的最小单位
+工作包：可继续拆分为活动</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WBS是进度安排，成本估算和监控的基础：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 项目的全部工作都必须包含在工作分析解结构中
+2. 编至需要所有项目干系人参与
+3. 逐层向下分解的， 每条分支分解层次不必相等 ，3 - 6层，要素独立， 减少交叉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作分解结构表示形式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 分极的树形结构：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ * 层次清晰， 非常直观， 结构性强。但不易修改，小项目常用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 表格形式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ * 反应所有工作要素，不直观。在大项目中常用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作分解结构中的一些概念：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 里程碑：具体的时间，此时间完成的事件
+2. 工作包： 最小8小时，最大80小时
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 控制账户：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 是一个管理控制点， 把范围，预算，实际成本和进度整合，并与挣值比较，以测量绩效。控制账户在WBS中选定的管理节点上，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个控制账户可能包含一个或多个工作包，但工作包只能属于一个控制账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围基准：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 经过批准的项目范围说明书
+2. WBS
+3. WBS词典
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建工作分解结构：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 识别和分析可交付的成果及相关工作。（分解什么）
+2. 确定WBS的结构和编 排方法（如何分解）
+3. 自上而下逐层细化分解（开始分解）
+4. 为WBS组件制定和分配标识编码（编码）
+5. 核实可交付成果分解和积度是恰当的（检查确认）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WBS分解方法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 项目的生命周期 作为第一层， 可交付物分解在第二层
+2. 把项目的重要的可交付物作为分解的第一层
+3. 把子子孙孙项目安排在第一层， 再分解子项目WBS
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">工作分解结构应把握的原则：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 在各层次上保持项目的完整性， 避免遗漏必要的组成部分
+2. 一个工作单 元只能从属于某个上层单元， 避免交叉
+3. 相同层次的工作单元应用相同性质
+4. 工作单元应能分开不同责任者和不同工作内容
+5. 便于项目管理计划和项目控制的需要
+6. 最低层工作应具：有可比性， 可管理的，可检查的
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 应包括项目管理工作， 应包用在分包出去的工作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、项目管理计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> （十一大子计划，三大基准）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、需求文件
+3、需求跟踪矩阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4、核实的可交付成果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 5、工作绩效数据</t>
+    </r>
   </si>
   <si>
     <t>1、检查
 2、群体决策技术</t>
   </si>
   <si>
-    <t>1、验收的可交付成果
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、验收的可交付成果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、变更请求
 3、工作绩效信息
 4、项目文件更新</t>
-  </si>
-  <si>
-    <t>1、项目管理计划
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认范围：（正式验收）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+正式验收已完成的项目上可交付成果的过程
+需要审查可交付物和工作成果
+贯穿始终， 从WBS确认至合同分工界面确认，到项目验收时范围 检验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认范围的步骤：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 确定需要进行的范围确认的时间
+2. 识别范围确认需要那些投入
+3. 确认范围正式被接受的标准和要素
+4. 确认会议的组织步骤
+5.组织范围确认坐议</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、项目管理计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> （十一大子计划，三大基准）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、需求文 件
 3、需求跟踪矩阵
 4、工作绩效数据
 5、组织过程资产</t>
+    </r>
   </si>
   <si>
     <t>1、偏差分析</t>
@@ -441,6 +1607,38 @@
 3、项目管理计划更新
 4、项目文件更新
 5、组织过程资产更新</t>
+  </si>
+  <si>
+    <t>1. 监督项目和产品的范围状态， 管理范围基准变更， 协调
+2. 未经控制的产品或项目范围矿大，被称为项目蔓延
+3. 变更不可避免，需以书面形式记录并实施某种形式的变更控制
+4. 每次需求评审合，都需要重新确定需求基线。并维护好相关基线文 档。
+5. 随项目进展， 基线将越定越高， 容许的变更将越来越少</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、项目管理计划
+2、项目章程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3、事业环境因素
+4、组织过程资产</t>
+    </r>
   </si>
   <si>
     <t>1.进度管理计划</t>
@@ -1024,10 +2222,28 @@
     <t>规划成本</t>
   </si>
   <si>
-    <t>1、项目管理计划 
-2、项目章程 
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、项目管理计划 
+2、项目章程 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、事业环境因素 
 4、组织过程资产</t>
+    </r>
   </si>
   <si>
     <t>1、专家判断 
@@ -1038,89 +2254,273 @@
     <t>1、成本管理计划</t>
   </si>
   <si>
-    <t xml:space="preserve">1、成本管理计划
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、成本管理计划
 2、人力资源管理计划
 3、范围基准
 4、项目进度计划
-5、风险登记册
+5、风险登记册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 6、事业环境因素
 7、组织过程资产
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、专家判断 
-2、类比估算 
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、专家判断 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、类比估算 
 3、参数估算 
 4、自下而上估算
 5、三点估算
-6、储备分析
+6、储备分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 7、质量成本
 8、项目管理软件
 9、卖方投标分析
 10、群体决策技术
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、活动成本估算
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、活动成本估算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、估算依据
 3、项目文件更新
 </t>
+    </r>
   </si>
   <si>
     <t>制订预算</t>
   </si>
   <si>
-    <t>1、成本管理计划
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、成本管理计划
 2、范围基准
 3、活动成本估算
-4、估算依据
+4、估算依据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 5、项目进度计划
 6、资源日历
 7、风险登记册
 8、协议
 9、组织过程资产</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、成本汇总 
-2、储备分析 
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、成本汇总 
+2、储备分析 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、专家判断 
 4、历史关系
 5、资源限制平衡
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、成本基准
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、成本基准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、项目资金需求
 3、项目文件更新
 </t>
+    </r>
   </si>
   <si>
     <t>控制成本</t>
   </si>
   <si>
-    <t xml:space="preserve">1、项目管理计划 
-2、项目资金需求 
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、项目管理计划 
+2、项目资金需求 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、工作绩效数据 
 4、组织过程资产 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、挣值管理 
-2、预测 
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、挣值管理 
+2、预测 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 3、完工尚需绩效指数 
 4、绩效审查 
 5、项目管理软件 
 6、储备分析 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、工作绩效信息
-2、成本预测
-3、变更请求
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、工作绩效信息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、成本预测
+3、变更请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4、项目管理计划更新
 5、项目文件更新
 6、组织过程资产更新
 </t>
+    </r>
+  </si>
+  <si>
+    <t>规划质量管理
+（编制质量管理计划）</t>
   </si>
   <si>
     <r>
@@ -1263,7 +2663,26 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-6、可交付成果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6、可交付成果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 7、项目文件
 8、组织过程资产</t>
     </r>
@@ -1284,9 +2703,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>1、质量控制测量结果
+      <t xml:space="preserve">1、质量控制测量结果
 2、确认的变更
-3、核实的可交付成果</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、核实的可交付成果</t>
     </r>
     <r>
       <rPr>
@@ -2332,6 +3761,9 @@
 2、问题日志
 3、工作绩效数据
 4、项目文件</t>
+  </si>
+  <si>
+    <t>WBS</t>
   </si>
 </sst>
 </file>
@@ -2344,22 +3776,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="40">
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2377,6 +3796,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -2385,13 +3827,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2551,6 +4000,56 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="42">
@@ -3296,155 +4795,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3454,304 +4956,340 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3813,6 +5351,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>382270</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715" y="179070"/>
+          <a:ext cx="9482455" cy="5045710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4076,485 +5661,490 @@
   <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.61261261261261" style="53"/>
-    <col min="2" max="2" width="16.4504504504505" style="53" customWidth="1"/>
-    <col min="3" max="3" width="16.7567567567568" style="53" customWidth="1"/>
-    <col min="4" max="5" width="20.9369369369369" style="53" customWidth="1"/>
-    <col min="6" max="6" width="18.8378378378378" style="53" customWidth="1"/>
-    <col min="7" max="7" width="11.8918918918919" style="53" customWidth="1"/>
-    <col min="8" max="16384" width="8.61261261261261" style="53"/>
+    <col min="1" max="1" width="8.61261261261261" style="66"/>
+    <col min="2" max="2" width="16.4504504504505" style="66" customWidth="1"/>
+    <col min="3" max="3" width="16.7567567567568" style="66" customWidth="1"/>
+    <col min="4" max="5" width="20.9369369369369" style="66" customWidth="1"/>
+    <col min="6" max="6" width="18.8378378378378" style="66" customWidth="1"/>
+    <col min="7" max="7" width="11.8918918918919" style="66" customWidth="1"/>
+    <col min="8" max="16384" width="8.61261261261261" style="66"/>
   </cols>
   <sheetData>
     <row r="2" ht="17" spans="2:7">
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.3" spans="2:7">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="78" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.05" spans="2:7">
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="86"/>
+      <c r="F5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80" t="s">
+      <c r="E6" s="92"/>
+      <c r="F6" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="94"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
     </row>
     <row r="8" ht="17" spans="2:7">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="62" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
     </row>
     <row r="13" ht="17" spans="2:7">
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="62" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
     </row>
     <row r="16" ht="17" spans="2:7">
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" ht="17" spans="2:7">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="89"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="62" t="s">
+      <c r="C18" s="85"/>
+      <c r="D18" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="91" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="81"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" ht="17" spans="2:7">
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="92" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="84"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="97"/>
     </row>
     <row r="21" ht="17" spans="2:7">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="89"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="85"/>
+      <c r="D22" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="74" t="s">
+      <c r="E22" s="103"/>
+      <c r="F22" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
     </row>
     <row r="26" ht="17" spans="2:7">
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68" t="s">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" ht="17" spans="2:7">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="106" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" ht="17" spans="2:7">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="89"/>
+      <c r="G28" s="102"/>
+    </row>
+    <row r="29" ht="83" customHeight="1" spans="6:6">
+      <c r="F29" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="110" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="98"/>
-      <c r="C32" s="53" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="112" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="98"/>
-      <c r="D33" s="99"/>
+      <c r="B33" s="111"/>
+      <c r="D33" s="112"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="99"/>
+      <c r="C34" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="112"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="B35" s="111"/>
+      <c r="D35" s="112"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="112" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="98"/>
-      <c r="C37" s="53" t="s">
+      <c r="B37" s="111"/>
+      <c r="C37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="99" t="s">
-        <v>62</v>
+      <c r="D37" s="112" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="48.85" spans="2:4">
-      <c r="B38" s="98"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="111"/>
+      <c r="C38" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="100" t="s">
-        <v>63</v>
+      <c r="D38" s="113" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="98"/>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="111"/>
+      <c r="C39" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D39" s="112" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="98"/>
-      <c r="C40" s="53" t="s">
+      <c r="B40" s="111"/>
+      <c r="C40" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="112" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="98"/>
-      <c r="C41" s="53" t="s">
+      <c r="B41" s="111"/>
+      <c r="C41" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="99" t="s">
-        <v>64</v>
+      <c r="D41" s="112" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="98"/>
-      <c r="D42" s="99"/>
+      <c r="B42" s="111"/>
+      <c r="D42" s="112"/>
     </row>
     <row r="43" ht="32.55" spans="2:4">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="99"/>
+      <c r="C43" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="112"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="98"/>
-      <c r="D44" s="99"/>
+      <c r="B44" s="111"/>
+      <c r="D44" s="112"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="112" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" ht="17" spans="2:4">
-      <c r="B46" s="101"/>
-      <c r="C46" s="102" t="s">
+      <c r="B46" s="114"/>
+      <c r="C46" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="116" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4567,765 +6157,836 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I36" sqref="G36 I36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25"/>
   <cols>
-    <col min="1" max="1" width="8.61261261261261" style="2"/>
-    <col min="2" max="2" width="18.6936936936937" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.4144144144144" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6216216216216" customWidth="1"/>
-    <col min="5" max="5" width="30.963963963964" customWidth="1"/>
-    <col min="6" max="6" width="27.2612612612613" customWidth="1"/>
+    <col min="1" max="1" width="1.88288288288288" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.6576576576577" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.4144144144144" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5855855855856" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.8198198198198" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.2612612612613" style="5" customWidth="1"/>
+    <col min="7" max="7" width="33.3153153153153" style="5" customWidth="1"/>
+    <col min="8" max="8" width="38.8288288288288" style="5" customWidth="1"/>
+    <col min="9" max="9" width="45.6666666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.0630630630631" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.9459459459459" style="5" customWidth="1"/>
+    <col min="12" max="12" width="28.3333333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="38.1261261261261" style="5" customWidth="1"/>
+    <col min="14" max="14" width="48.3423423423423" style="5" customWidth="1"/>
+    <col min="15" max="15" width="48.0720720720721" style="5" customWidth="1"/>
+    <col min="16" max="18" width="28.3963963963964" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.15" spans="1:6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" s="2" customFormat="1" ht="16.15" spans="1:6">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" ht="81.45" spans="2:7">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" ht="61.7" spans="2:7">
-      <c r="B3" s="8"/>
-      <c r="C3" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" ht="341.55" spans="2:9">
+      <c r="B3" s="10"/>
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="E3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" ht="77.15" spans="2:6">
-      <c r="B4" s="8"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>78</v>
+      <c r="D4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="108" spans="2:6">
-      <c r="B5" s="8"/>
-      <c r="C5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>82</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="77.15" spans="2:6">
-      <c r="B6" s="8"/>
-      <c r="C6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>86</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="49.6" spans="2:6">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>90</v>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="61.7" spans="2:6">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="D8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" ht="198" customHeight="1" spans="2:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" ht="117" customHeight="1" spans="2:7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="143.15" spans="2:15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" ht="97.7" spans="2:8">
+      <c r="B12" s="10"/>
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" ht="179.9" spans="2:7">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" ht="74" customHeight="1" spans="2:6">
+      <c r="B14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" ht="169.7" spans="2:6">
-      <c r="B9" s="8"/>
-      <c r="C9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" ht="65.15" spans="2:6">
-      <c r="B10" s="8"/>
-      <c r="C10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" ht="77.15" spans="2:6">
-      <c r="B11" s="8"/>
-      <c r="C11" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" ht="81.45" spans="2:6">
-      <c r="B12" s="8"/>
-      <c r="C12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" ht="82.2" spans="2:6">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" ht="61.7" spans="2:6">
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" ht="64.3" spans="2:6">
-      <c r="B15" s="8"/>
-      <c r="C15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>114</v>
+      <c r="F14" s="49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="68" customHeight="1" spans="2:6">
+      <c r="B15" s="10"/>
+      <c r="C15" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="112.3" spans="2:6">
-      <c r="B16" s="8"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>117</v>
+      <c r="D16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" ht="128.55" spans="2:6">
-      <c r="B17" s="8"/>
-      <c r="C17" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>121</v>
+      <c r="B17" s="10"/>
+      <c r="C17" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" ht="160.3" spans="2:6">
-      <c r="B18" s="8"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>124</v>
+      <c r="D18" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19" ht="206.55" spans="2:6">
-      <c r="B19" s="8"/>
-      <c r="C19" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>128</v>
+      <c r="B19" s="10"/>
+      <c r="C19" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="110.45" spans="2:6">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" ht="64.3" spans="2:6">
+      <c r="B21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" ht="175.7" spans="2:6">
+      <c r="B22" s="10"/>
+      <c r="C22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" ht="144" spans="2:6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" ht="113.9" spans="2:6">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" ht="123.45" spans="2:6">
+      <c r="B25" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" ht="78.85" spans="2:6">
+      <c r="B26" s="10"/>
+      <c r="C26" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" ht="129.3" spans="2:6">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" ht="81.45" spans="2:6">
+      <c r="B28" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" ht="92.55" spans="2:6">
+      <c r="B29" s="10"/>
+      <c r="C29" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" ht="108.85" spans="2:6">
+      <c r="B30" s="10"/>
+      <c r="C30" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" ht="95.9" spans="2:6">
+      <c r="B31" s="42"/>
+      <c r="C31" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" ht="78.85" spans="2:6">
+      <c r="B32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" ht="78.85" spans="2:6">
+      <c r="B33" s="10"/>
+      <c r="C33" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" ht="81.3" spans="2:6">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" ht="96" spans="2:6">
+      <c r="B35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" ht="204.85" spans="2:6">
+      <c r="B36" s="10"/>
+      <c r="C36" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" ht="108" spans="2:6">
+      <c r="B37" s="10"/>
+      <c r="C37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" ht="95.15" spans="2:6">
+      <c r="B38" s="10"/>
+      <c r="C38" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" ht="95.15" spans="2:6">
+      <c r="B39" s="10"/>
+      <c r="C39" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" ht="97.6" spans="2:6">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" ht="154.3" spans="2:6">
+      <c r="B41" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" ht="138.85" spans="2:6">
+      <c r="B42" s="10"/>
+      <c r="C42" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" ht="130.3" spans="2:6">
+      <c r="B43" s="10"/>
+      <c r="C43" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" ht="62.45" spans="2:6">
+      <c r="B44" s="42"/>
+      <c r="C44" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" ht="65.15" spans="2:6">
+      <c r="B45" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" ht="65.15" spans="2:6">
+      <c r="B46" s="10"/>
+      <c r="C46" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" ht="81.45" spans="2:6">
+      <c r="B47" s="10"/>
+      <c r="C47" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" ht="82.2" spans="2:6">
+      <c r="B48" s="42"/>
+      <c r="C48" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="46" t="s">
         <v>129</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" ht="65.15" spans="2:6">
-      <c r="B21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" ht="179.15" spans="2:6">
-      <c r="B22" s="8"/>
-      <c r="C22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" ht="146.55" spans="2:6">
-      <c r="B23" s="8"/>
-      <c r="C23" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" ht="114.75" spans="2:6">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" ht="123.45" spans="2:6">
-      <c r="B25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" ht="78.85" spans="2:6">
-      <c r="B26" s="8"/>
-      <c r="C26" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" ht="129.3" spans="2:6">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" ht="81.45" spans="2:6">
-      <c r="B28" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" ht="92.55" spans="2:6">
-      <c r="B29" s="8"/>
-      <c r="C29" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" ht="108.85" spans="2:6">
-      <c r="B30" s="8"/>
-      <c r="C30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" ht="95.9" spans="2:6">
-      <c r="B31" s="38"/>
-      <c r="C31" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" ht="78.85" spans="2:6">
-      <c r="B32" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" ht="78.85" spans="2:6">
-      <c r="B33" s="8"/>
-      <c r="C33" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" ht="81.3" spans="2:6">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" ht="96" spans="2:6">
-      <c r="B35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" ht="204.85" spans="2:6">
-      <c r="B36" s="8"/>
-      <c r="C36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" ht="108" spans="2:6">
-      <c r="B37" s="8"/>
-      <c r="C37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" ht="95.15" spans="2:6">
-      <c r="B38" s="8"/>
-      <c r="C38" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" ht="64.3" spans="2:6">
-      <c r="B39" s="8"/>
-      <c r="C39" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" ht="97.6" spans="2:6">
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" ht="154.3" spans="2:6">
-      <c r="B41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" ht="138.85" spans="2:6">
-      <c r="B42" s="8"/>
-      <c r="C42" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" ht="130.3" spans="2:6">
-      <c r="B43" s="8"/>
-      <c r="C43" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" ht="62.45" spans="2:6">
-      <c r="B44" s="38"/>
-      <c r="C44" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" ht="65.15" spans="2:6">
-      <c r="B45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" ht="65.15" spans="2:6">
-      <c r="B46" s="8"/>
-      <c r="C46" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" ht="81.45" spans="2:6">
-      <c r="B47" s="8"/>
-      <c r="C47" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" ht="82.2" spans="2:6">
-      <c r="B48" s="38"/>
-      <c r="C48" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5344,4 +7005,50 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="34.6756756756757" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/十五至尊图.xlsx
+++ b/十五至尊图.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="253">
   <si>
     <t>启动过程组</t>
   </si>
@@ -264,14 +264,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13个子计划：</t>
+      <t>11个子计划：</t>
     </r>
     <r>
       <rPr>
@@ -332,6 +325,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
@@ -2524,14 +2518,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、项目管理计划
+      <t>1、项目管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、干系人登记册
 3、风险登记册
 4、需求文件</t>
@@ -2560,16 +2557,49 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、质量管理计划
-2、过程改进计划
-3、质量测量指标
+      <t xml:space="preserve">1、质量管理计划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、过程改进计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3、质量测量指标</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 4、质量核对单</t>
     </r>
     <r>
@@ -2584,21 +2614,366 @@
     </r>
   </si>
   <si>
-    <t>实施质量保证</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
+      <t>工作与技术：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 成本收益分析法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">保证质量需消耗成本， 同时保证质量也可以有效益（收益）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 质量成本法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">产品生命周期 中产生的成本
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3. 标杆对照照 （基准分析）
+4. 实验设计：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 用来识别那些因素会对正在生产的产品或正在开发的流程 的特定变量产生影响
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5. 统计抽样：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">抽样频率和规模应在规划质量管理过程中确认，以便在质量成本中考虑测试数量与预期废料等
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6. 其化：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 头脑风暴， 力场分析， 外议小组技术</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一致性成本：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">项目期间防止失败成本
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 预防成本 （生产合规产品）
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培训， 流程文档化， 设备， 正确的做事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 评价成本 （评价质量）
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- 测试， 破坏性测试导致的失败， 检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非一致性成本：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理失败的费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 内部失败成本 （项目内部发现）
+ - 返工，废品
+2. 外部失败成本 （项目外部发现）
+  - 责任， 保修， 业务流失 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>七种基作质量工具：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 因是图（鱼骨图，石川图）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">用来追溯问题来源， 或进行跟本原因分析。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 流程图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来显示一个越多个输入转化为一个越多个输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 核查表（计数表）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核查计数清单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 帕累托图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二八原则，ABC分析法， 抓重点原因，识别种过成大多数问题的少数重要原因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 真方图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于描述集中趋势，分散程度和统计分布形状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+6. 控制图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寻找数据中的规律，七点运行定律。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+7. 散点图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以显示两个变量之间是否有关系，检查相关性</t>
+    </r>
+  </si>
+  <si>
+    <t>实施质量保证
+（管理质量）</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1、质量管理计划 
 2、过程改进计划 
 3、质量测量指标 
-4、质量控制测量结果 </t>
+4、质量控制测量结果 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（原自</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>控制质量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出）</t>
     </r>
     <r>
       <rPr>
@@ -2641,19 +3016,88 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、项目管理计划
+    <t xml:space="preserve">
+实施质量保证是审计质量要求和质量控制测量结，确保采用合理的质量标准和操作性，定义的过程。促进质量过程改进，质量保证旨在建立对未来输出或未完输出将在完工时满足特定的需求和期望的信心
+质量保证一般由质量保证部门或类似的相关部分完成
+实施质量保证过程也持续过程改进
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">质量管理与控制工具：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.质量审计：质量保证体系审核
+ - 识别全部正在实施的良好及量佳实践
+ - 识别全部违法规做法，差距及不足
+ - 分享所在组织或行业中类似项目的良好实践
+ - 积极，主动地提供协助， 以改进过程的执行， 从而帮助团队提高生产效率
+ - 强调每次审计都应对组织经验教训和积累做出贡献</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量审计可以事先安排，也可随机，可内部也可以三方，质量审计还可以确认已批准的变更请求的实施情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>质量管理与控制工具：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 过程分析
+3. 质量管理和控制工具
+ - 亲和图
+ - 过程决策程序图 （PDPC法）
+ - 关联图
+ - 树形图：WBS，RBS，OBS
+ - 优先矩阵 ：选优先备选方案
+ - 活网络图： 单/双号网络图
+ - 短阵图：T型，L型，X型，Y型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、项目管理计划
 2、质量测量指标
 3、质量核对单
 4、工作绩效数据
-5、批准的变更请求</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5、批准的变更请求</t>
     </r>
     <r>
       <rPr>
@@ -2696,22 +3140,45 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1、质量控制测量结果
-2、确认的变更
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>1、质量控制测量结果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、确认的变更</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.25"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -2732,7 +3199,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="4" tint="-0.25"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -2752,6 +3219,42 @@
     </r>
   </si>
   <si>
+    <t>质量控制是监督并记录质量活动执行结果， 以便评估绩效， 并推见必要的变更过程，作用保括：
+1. 识别过程低效或产品质量低劣的原因， 建议并采取相应措施消除这些原因
+2. 确认项目的可交付成果及工作满足主要干系人的既定需求，以便进行最终验收。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">质量控制和工具和技术
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">统计抽样
+2. 检查： 审查， 同行审查， 审计或巡检
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">质量保证和质量控制的区别：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1. 实施质量保证： 是针对过程改进和审计， 强调 的是过程改进和信心保证
+2. 实施质量制：是按照 质量要求，检查具体可交付成果的质量， 强调 的是具体的可交付成果</t>
+    </r>
+  </si>
+  <si>
     <t>项目人力资源管理</t>
   </si>
   <si>
@@ -2759,14 +3262,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1、项目管理计划 
+      <t xml:space="preserve">1、项目管理计划 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2、活动资源需求 
 3、事业环境因素 </t>
     </r>
@@ -2793,13 +3299,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>1、人力资源管理计划</t>
     </r>
     <r>
@@ -3776,7 +4275,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -3815,6 +4314,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4008,6 +4515,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -4041,6 +4549,18 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -4795,51 +5315,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -4849,98 +5366,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5103,16 +5623,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5130,15 +5662,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5163,7 +5701,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -5241,7 +5779,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -5250,19 +5788,19 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
@@ -5666,352 +6204,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.61261261261261" style="66"/>
-    <col min="2" max="2" width="16.4504504504505" style="66" customWidth="1"/>
-    <col min="3" max="3" width="16.7567567567568" style="66" customWidth="1"/>
-    <col min="4" max="5" width="20.9369369369369" style="66" customWidth="1"/>
-    <col min="6" max="6" width="18.8378378378378" style="66" customWidth="1"/>
-    <col min="7" max="7" width="11.8918918918919" style="66" customWidth="1"/>
-    <col min="8" max="16384" width="8.61261261261261" style="66"/>
+    <col min="1" max="1" width="8.61261261261261" style="72"/>
+    <col min="2" max="2" width="16.4504504504505" style="72" customWidth="1"/>
+    <col min="3" max="3" width="16.7567567567568" style="72" customWidth="1"/>
+    <col min="4" max="5" width="20.9369369369369" style="72" customWidth="1"/>
+    <col min="6" max="6" width="18.8378378378378" style="72" customWidth="1"/>
+    <col min="7" max="7" width="11.8918918918919" style="72" customWidth="1"/>
+    <col min="8" max="16384" width="8.61261261261261" style="72"/>
   </cols>
   <sheetData>
     <row r="2" ht="17" spans="2:7">
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.3" spans="2:7">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.05" spans="2:7">
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="84"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="75" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="88"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="93" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="94"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" ht="17" spans="2:7">
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
     </row>
     <row r="13" ht="17" spans="2:7">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="75" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="94"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="16" ht="17" spans="2:7">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" ht="17" spans="2:7">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="102"/>
+      <c r="G17" s="108"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="75" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="88"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="94"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="104" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="94"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" ht="17" spans="2:7">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="105" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="97"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" ht="17" spans="2:7">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99" t="s">
+      <c r="C21" s="104"/>
+      <c r="D21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="102"/>
+      <c r="G21" s="108"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="75" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="87" t="s">
+      <c r="E22" s="109"/>
+      <c r="F22" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
     </row>
     <row r="26" ht="17" spans="2:7">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
     </row>
     <row r="27" ht="17" spans="2:7">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99" t="s">
+      <c r="C27" s="104"/>
+      <c r="D27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="112" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" ht="17" spans="2:7">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="E28" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="102"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" ht="83" customHeight="1" spans="6:6">
       <c r="F29" s="22" t="s">
@@ -6019,132 +6557,132 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="111"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="117"/>
+      <c r="C32" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="112" t="s">
+      <c r="D32" s="118" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="111"/>
-      <c r="D33" s="112"/>
+      <c r="B33" s="117"/>
+      <c r="D33" s="118"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="112"/>
+      <c r="D34" s="118"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="111"/>
-      <c r="D35" s="112"/>
+      <c r="B35" s="117"/>
+      <c r="D35" s="118"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="118" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="111"/>
-      <c r="C37" s="66" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="118" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" ht="48.85" spans="2:4">
-      <c r="B38" s="111"/>
-      <c r="C38" s="66" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="119" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="111"/>
-      <c r="C39" s="66" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="118" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="111"/>
-      <c r="C40" s="66" t="s">
+      <c r="B40" s="117"/>
+      <c r="C40" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="118" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="111"/>
-      <c r="C41" s="66" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="118" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="111"/>
-      <c r="D42" s="112"/>
+      <c r="B42" s="117"/>
+      <c r="D42" s="118"/>
     </row>
     <row r="43" ht="32.55" spans="2:4">
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="112"/>
+      <c r="D43" s="118"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="111"/>
-      <c r="D44" s="112"/>
+      <c r="B44" s="117"/>
+      <c r="D44" s="118"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="118" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" ht="17" spans="2:4">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115" t="s">
+      <c r="B46" s="120"/>
+      <c r="C46" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="116" t="s">
+      <c r="D46" s="122" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6159,12 +6697,12 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25"/>
@@ -6175,8 +6713,8 @@
     <col min="4" max="4" width="26.5855855855856" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.8198198198198" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.2612612612613" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.3153153153153" style="5" customWidth="1"/>
-    <col min="8" max="8" width="38.8288288288288" style="5" customWidth="1"/>
+    <col min="7" max="7" width="40.5135135135135" style="5" customWidth="1"/>
+    <col min="8" max="8" width="39.7837837837838" style="5" customWidth="1"/>
     <col min="9" max="9" width="45.6666666666667" style="5" customWidth="1"/>
     <col min="10" max="10" width="28.0630630630631" style="5" customWidth="1"/>
     <col min="11" max="11" width="30.9459459459459" style="5" customWidth="1"/>
@@ -6224,7 +6762,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" ht="341.55" spans="2:9">
+    <row r="3" ht="325.3" spans="2:9">
       <c r="B3" s="10"/>
       <c r="C3" s="15" t="s">
         <v>7</v>
@@ -6345,7 +6883,7 @@
       <c r="H9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="67" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6387,7 +6925,7 @@
       <c r="H11" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="68" t="s">
         <v>115</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -6399,7 +6937,7 @@
       <c r="L11" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="69" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="19" t="s">
@@ -6430,7 +6968,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" ht="179.9" spans="2:7">
+    <row r="13" ht="163.6" spans="2:7">
       <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
         <v>16</v>
@@ -6617,14 +7155,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" ht="123.45" spans="2:6">
+    <row r="25" ht="233" customHeight="1" spans="2:9">
       <c r="B25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="48" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="32" t="s">
@@ -6633,97 +7171,124 @@
       <c r="F25" s="34" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" ht="78.85" spans="2:6">
+      <c r="G25" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" ht="174" spans="2:9">
       <c r="B26" s="10"/>
-      <c r="C26" s="54" t="s">
-        <v>173</v>
+      <c r="C26" s="55" t="s">
+        <v>176</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" ht="129.3" spans="2:6">
+        <v>179</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" ht="129.3" spans="2:9">
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="71" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" ht="81.45" spans="2:6">
       <c r="B28" s="30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" ht="92.55" spans="2:6">
       <c r="B29" s="10"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="58" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="108.85" spans="2:6">
       <c r="B30" s="10"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="58" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" ht="95.9" spans="2:6">
       <c r="B31" s="42"/>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>193</v>
+        <v>201</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" ht="78.85" spans="2:6">
@@ -6734,28 +7299,28 @@
         <v>41</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" ht="78.85" spans="2:6">
       <c r="B33" s="10"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="58" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>198</v>
+        <v>206</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>207</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" ht="81.3" spans="2:6">
@@ -6764,13 +7329,13 @@
         <v>43</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="35" ht="96" spans="2:6">
@@ -6781,13 +7346,13 @@
         <v>45</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" ht="204.85" spans="2:6">
@@ -6796,13 +7361,13 @@
         <v>47</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" ht="108" spans="2:6">
@@ -6811,13 +7376,13 @@
         <v>48</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>211</v>
+        <v>219</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38" ht="95.15" spans="2:6">
@@ -6826,13 +7391,13 @@
         <v>49</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>211</v>
+        <v>222</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="39" ht="95.15" spans="2:6">
@@ -6841,13 +7406,13 @@
         <v>50</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" ht="97.6" spans="2:6">
@@ -6855,14 +7420,14 @@
       <c r="C40" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="58" t="s">
-        <v>217</v>
+      <c r="D40" s="62" t="s">
+        <v>226</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" ht="154.3" spans="2:6">
@@ -6870,31 +7435,31 @@
         <v>51</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" ht="138.85" spans="2:6">
       <c r="B42" s="10"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" ht="130.3" spans="2:6">
@@ -6903,45 +7468,45 @@
         <v>54</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" ht="62.45" spans="2:6">
       <c r="B44" s="42"/>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="45" ht="65.15" spans="2:6">
       <c r="B45" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="65" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>235</v>
+        <v>243</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="46" ht="65.15" spans="2:6">
@@ -6950,28 +7515,28 @@
         <v>58</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="81.45" spans="2:6">
       <c r="B47" s="10"/>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="58" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" ht="82.2" spans="2:6">
@@ -6979,11 +7544,11 @@
       <c r="C48" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>201</v>
+      <c r="D48" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>210</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>129</v>
@@ -7020,7 +7585,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/十五至尊图.xlsx
+++ b/十五至尊图.xlsx
@@ -9274,7 +9274,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25"/>

--- a/十五至尊图.xlsx
+++ b/十五至尊图.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="十五至尊图" sheetId="1" r:id="rId1"/>
-    <sheet name="细节" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="十大过程组细节" sheetId="2" r:id="rId2"/>
+    <sheet name="知识点" sheetId="3" r:id="rId3"/>
+    <sheet name="知识点1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="392">
   <si>
     <t>启动过程组</t>
   </si>
@@ -244,6 +244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">制定项目章程
 </t>
     </r>
@@ -277,6 +284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目工作说明书（SOW）：</t>
     </r>
     <r>
@@ -391,6 +405,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>专家判断：</t>
     </r>
     <r>
@@ -426,6 +446,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">制定项目管理计划
 </t>
     </r>
@@ -454,6 +481,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>13个子计划：</t>
     </r>
     <r>
@@ -557,6 +591,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>一. 项目管理计划：</t>
     </r>
     <r>
@@ -596,6 +636,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">项目管理计划的内容
 </t>
     </r>
@@ -639,6 +685,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">指导和管理项目执行
 </t>
     </r>
@@ -665,7 +718,7 @@
 3. 会议</t>
   </si>
   <si>
-    <t>1. 可交付的成果
+    <t>1. 可交付成果
 2. 工作绩效数据
 3. 变更请求
 4. 项目管理计划的更新
@@ -673,6 +726,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>可交付成果：</t>
     </r>
     <r>
@@ -740,6 +799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目管理信息系统：</t>
     </r>
     <r>
@@ -753,6 +818,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">监控项目工作
 </t>
     </r>
@@ -772,7 +844,7 @@
 2. 进度预测
 3. 成本预测
 4. 确认的变更
-5. 工作绩效信息
+5. 工作绩效数据
 6. 事业环境因素
 7. 组织过程资源</t>
   </si>
@@ -790,6 +862,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>进度预测（控制进度过程组输出）：</t>
     </r>
     <r>
@@ -821,6 +899,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>分析技术：</t>
     </r>
     <r>
@@ -836,6 +920,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 实施整体变更控制
 </t>
@@ -871,6 +962,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>变更请求应该由变更控制系统（CCS）和配置控制系统中规定的过程进行处理
 配置管理系统：分为变更控制系统和配置控制系统。由一系列证书的书面程序组成，明确了核准和控制变更所需的批准层级，对以下工作</t>
     </r>
@@ -899,31 +995,45 @@
   </si>
   <si>
     <r>
-      <t>会议（CCM）：</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="8.5"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>指变更控制会议-CCB的会议CCB：变更控制委员会</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>会议（CCM）：</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="8.5"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>指变更控制会议-CCB的会议CCB：变更控制委员会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 ★完整的变更管理流程图</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">结束项目或阶段
 </t>
     </r>
@@ -954,6 +1064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>组织过程资产：</t>
     </r>
     <r>
@@ -985,6 +1101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>专家判断：</t>
     </r>
     <r>
@@ -1017,6 +1139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">规划范围管理
 </t>
     </r>
@@ -1083,6 +1212,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">收集需求
 </t>
     </r>
@@ -1123,6 +1259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>干系人管理计划：</t>
     </r>
     <r>
@@ -1199,6 +1341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>访谈：</t>
     </r>
     <r>
@@ -1401,6 +1549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>需求文件：</t>
     </r>
     <r>
@@ -1472,6 +1626,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">定义范围
 </t>
     </r>
@@ -1636,6 +1797,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">创建工作分解结果（WBS）
 </t>
     </r>
@@ -1770,6 +1938,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>WBS是进度安排，成本估算和监控的基础：</t>
     </r>
     <r>
@@ -1786,6 +1960,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>工作分解结构表示形式：</t>
     </r>
     <r>
@@ -1837,6 +2017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>工作分解结构中的一些概念：</t>
     </r>
     <r>
@@ -1895,6 +2081,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>范围基准：</t>
     </r>
     <r>
@@ -1941,7 +2133,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>1. 识别和分析可交付的成果及相关工作。（分解什么）
+      <t>1. 识别和分析可交付成果及相关工作。（分解什么）
 2. 确定WBS的结构和编 排方法（如何分解）
 3. 自上而下逐层细化分解（开始分解）
 4. 为WBS组件制定和分配标识编码（编码）
@@ -1950,6 +2142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">WBS分解方法：
 </t>
     </r>
@@ -1967,6 +2165,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作分解结构应把握的原则：
 </t>
     </r>
@@ -1996,6 +2200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">确认范围
 </t>
     </r>
@@ -2030,6 +2241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>核实的可交付成果：</t>
     </r>
     <r>
@@ -2061,6 +2278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>检查：</t>
     </r>
     <r>
@@ -2075,6 +2298,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">确认范围：（正式验收）
 </t>
     </r>
@@ -2115,6 +2344,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">控制范围
 </t>
     </r>
@@ -2156,6 +2392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">偏差分析：
 </t>
     </r>
@@ -2190,6 +2432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>规划进度管理</t>
     </r>
     <r>
@@ -2209,6 +2458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>进度管理计划：为编制. 监督和控制项目进度建立准则和明确活动，对以下工作规定：</t>
     </r>
     <r>
@@ -2231,6 +2486,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">定义活动
 </t>
     </r>
@@ -2263,6 +2525,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>活动清单：</t>
     </r>
     <r>
@@ -2348,6 +2616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>滚动式规划：</t>
     </r>
     <r>
@@ -2361,6 +2635,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">排列活动顺序
 </t>
     </r>
@@ -2395,6 +2676,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目进度网络图：</t>
     </r>
     <r>
@@ -2408,6 +2695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>PDM紧前关系绘图法：</t>
     </r>
     <r>
@@ -2474,6 +2767,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">估算活动资源
 </t>
     </r>
@@ -2512,6 +2812,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>资源日历（组建项目团队过程的输出）：</t>
     </r>
     <r>
@@ -2597,6 +2903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>发布的估算数据：</t>
     </r>
     <r>
@@ -2627,6 +2939,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">估算活动持续时间
 </t>
     </r>
@@ -2667,6 +2986,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>活动持续时间估算：</t>
     </r>
     <r>
@@ -2680,6 +3005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>类比估算：</t>
     </r>
     <r>
@@ -2804,6 +3135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">制定计划
 </t>
     </r>
@@ -2853,6 +3191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目人员分派（组建项目团队过程的输出）：</t>
     </r>
     <r>
@@ -2978,6 +3322,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>进度网络分析：</t>
     </r>
     <r>
@@ -3223,6 +3573,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">控制进度
 </t>
     </r>
@@ -3264,6 +3621,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>工作绩效信息：</t>
     </r>
     <r>
@@ -3277,6 +3640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>绩效审查：</t>
     </r>
     <r>
@@ -3295,6 +3664,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>进度落后的项目可以</t>
     </r>
     <r>
@@ -3313,6 +3688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>规划成本</t>
     </r>
     <r>
@@ -3362,6 +3744,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">估算成本
 </t>
     </r>
@@ -3407,6 +3796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>人力资源管理计划（规划人力资源管理过程输出）：</t>
     </r>
     <r>
@@ -3458,6 +3853,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>自下而上估算：</t>
     </r>
     <r>
@@ -3508,6 +3909,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">制订预算
 </t>
     </r>
@@ -3549,6 +3957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>成本基准：</t>
     </r>
     <r>
@@ -3580,6 +3994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>成本汇总：</t>
     </r>
     <r>
@@ -3611,6 +4031,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">控制成本
 </t>
     </r>
@@ -3652,6 +4079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">规划质量管理
 （编制质量管理计划）
 </t>
@@ -3694,6 +4128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>质量管理计划：</t>
     </r>
     <r>
@@ -3781,6 +4221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>七种基本质量工具（</t>
     </r>
     <r>
@@ -4016,6 +4462,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>七种基本质量工具（</t>
     </r>
     <r>
@@ -4179,6 +4631,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">实施质量保证
 </t>
     </r>
@@ -4213,6 +4672,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>控制质量</t>
     </r>
     <r>
@@ -4256,6 +4722,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>七种质量工具：</t>
     </r>
     <r>
@@ -4402,6 +4874,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>规划项目人力资源管理</t>
     </r>
     <r>
@@ -4434,6 +4913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>人力资源管理计划：</t>
     </r>
     <r>
@@ -4450,6 +4935,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>组织图和职位描述三类格式：</t>
     </r>
     <r>
@@ -4499,6 +4990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">组建项目团队
 </t>
     </r>
@@ -4534,6 +5032,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>预分派：</t>
     </r>
     <r>
@@ -4551,6 +5055,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>谈判：</t>
     </r>
     <r>
@@ -4604,6 +5114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">建设项目团队
 </t>
     </r>
@@ -4639,6 +5156,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>团队绩效评价：</t>
     </r>
     <r>
@@ -4670,6 +5193,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>团队建设相关理论：</t>
     </r>
     <r>
@@ -4708,6 +5237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>塔克曼团队发展阶段理论：</t>
     </r>
     <r>
@@ -4780,6 +5315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">管理项目团队
 </t>
     </r>
@@ -4817,6 +5359,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>观察与交谈：</t>
     </r>
     <r>
@@ -4889,6 +5437,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">规划沟通管理
 </t>
     </r>
@@ -4922,6 +5477,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>沟通管理计划：</t>
     </r>
     <r>
@@ -4935,6 +5496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>沟通需求分析：</t>
     </r>
     <r>
@@ -5082,6 +5649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>交互式沟通：</t>
     </r>
     <r>
@@ -5170,6 +5743,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>管理沟通</t>
     </r>
     <r>
@@ -5205,6 +5785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目沟通：</t>
     </r>
     <r>
@@ -5220,6 +5806,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息管理系统：</t>
     </r>
     <r>
@@ -5251,6 +5843,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">控制沟通
 </t>
     </r>
@@ -5279,6 +5878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>信息管理系统：</t>
     </r>
     <r>
@@ -5310,6 +5915,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">规划风险管理
 </t>
     </r>
@@ -5342,6 +5954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>风险管理计划：</t>
     </r>
     <r>
@@ -5366,6 +5984,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>分析技术：</t>
     </r>
     <r>
@@ -5383,6 +6007,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">识别风险
 </t>
     </r>
@@ -5427,6 +6058,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>风险登记册：</t>
     </r>
     <r>
@@ -5446,6 +6083,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>文档审查：</t>
     </r>
     <r>
@@ -5550,6 +6193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">实施定性风险分析
 </t>
     </r>
@@ -5585,6 +6235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目文件更新：</t>
     </r>
     <r>
@@ -5606,6 +6262,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>风险数据质量评估：</t>
     </r>
     <r>
@@ -5673,6 +6335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">实施定量风险分析
 </t>
     </r>
@@ -5702,6 +6371,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>定量风险分析和建模技术：</t>
     </r>
     <r>
@@ -5720,6 +6395,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">规划风险应用
 </t>
     </r>
@@ -5750,6 +6432,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>消极风险：</t>
     </r>
     <r>
@@ -5861,6 +6549,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">控制风险
 </t>
     </r>
@@ -5891,6 +6586,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>风险再评估：</t>
     </r>
     <r>
@@ -5994,6 +6695,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>规划采购</t>
     </r>
     <r>
@@ -6039,6 +6747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>总价合同：</t>
     </r>
     <r>
@@ -6088,6 +6802,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>实施采购</t>
     </r>
     <r>
@@ -6134,6 +6855,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>选定的卖方：</t>
     </r>
     <r>
@@ -6165,6 +6892,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>投标人会议：</t>
     </r>
     <r>
@@ -6268,6 +7001,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>控制采购</t>
     </r>
     <r>
@@ -6311,6 +7051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>合同变更控制系统：</t>
     </r>
     <r>
@@ -6432,6 +7178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">结束采购
 </t>
     </r>
@@ -6464,6 +7217,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">合同提前终止是结束采购的一个特例。
 </t>
     </r>
@@ -6487,6 +7245,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>采购审计：</t>
     </r>
     <r>
@@ -6500,6 +7264,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>识别干系人</t>
     </r>
     <r>
@@ -6530,6 +7301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>采购文件（规划采购管理过程的输出）：</t>
     </r>
     <r>
@@ -6561,6 +7338,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>干系人分析：</t>
     </r>
     <r>
@@ -6574,6 +7357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>规划干系人管理</t>
     </r>
     <r>
@@ -6599,6 +7389,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">事业环境因素的组织文化、政治氛围、组织结构对规划干系人管理特别重要组织过程资产的经验教训和历史信息对规划干系人管理特别重要
 </t>
     </r>
@@ -6632,6 +7427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>分析技术：</t>
     </r>
     <r>
@@ -6663,6 +7464,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>管理干系人</t>
     </r>
     <r>
@@ -6697,6 +7505,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>人际关系技能：</t>
     </r>
     <r>
@@ -6728,6 +7542,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>控制干系人参与</t>
     </r>
     <r>
@@ -6756,6 +7577,141 @@
   </si>
   <si>
     <t>WBS</t>
+  </si>
+  <si>
+    <t>知识点</t>
+  </si>
+  <si>
+    <t>ITSS</t>
+  </si>
+  <si>
+    <t>四个核心要素</t>
+  </si>
+  <si>
+    <t>人员， 流程，资源， 技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生命周期 </t>
+  </si>
+  <si>
+    <t>规划设计， 部署实施，服务运营，持续改进，监督管理</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>数据抽取</t>
+  </si>
+  <si>
+    <t>数据抓取， 数据收据等。从网络，现实等各类来源收集数据。并整理集中储存。可在本地，可在云端。
+其侧重数据的获取与储存， 不包含分析与处理</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>从现有的数据中，通过分析找到其模式与规律，从大量的，不完全的，有噪声的，模糊的数据中抽取出隐藏的，事先不知道的有用的信息的过程
+其侧重解决分类，聚类，关联与预测四类问题。 帮助企业做出最佳决策。</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>开发方法</t>
+  </si>
+  <si>
+    <t>结构化法（瀑布模型）：完整完善的需求。整体性与全局性。 但开发周期长，文档，设计繁琐。工作效率低</t>
+  </si>
+  <si>
+    <t>原型法： 初步理解， 快的初步模型 ，需反复修改需求</t>
+  </si>
+  <si>
+    <t>面向对象法：是一个严格模块化的实体， 系统开发中可被 共享和重复引用，可建立一个全面合理，统一的模型。
+包含的模型： 用例模型；类-对像模型；对象-关系模型；对象-行为模型</t>
+  </si>
+  <si>
+    <t>开发生命周期模型</t>
+  </si>
+  <si>
+    <t>瀑布型</t>
+  </si>
+  <si>
+    <t>迭代型：</t>
+  </si>
+  <si>
+    <t>敏捷开发型</t>
+  </si>
+  <si>
+    <t>V模型</t>
+  </si>
+  <si>
+    <t>原型化模型</t>
+  </si>
+  <si>
+    <t>螺施模型</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>可用性</t>
+  </si>
+  <si>
+    <t>需要的时候能否使用（需要时可用）</t>
+  </si>
+  <si>
+    <t>可靠性</t>
+  </si>
+  <si>
+    <t>无故障率，用故障间隔时间来度量（不出错概率）</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>其系统状态可以被预见，被外部干预时依然可以保持稳定（出错时可用）</t>
+  </si>
+  <si>
+    <t>健壮性</t>
+  </si>
+  <si>
+    <t>稳定性的衍生， 可抵御外部的干扰</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>支持型，控制型，指令型</t>
+  </si>
+  <si>
+    <t>控制强度逐渐变强</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>招投标</t>
+  </si>
+  <si>
+    <t>三位中标人</t>
+  </si>
+  <si>
+    <t>如果中标人未按时签约，则需排顺序选定第后一位， 所有人都未签约则本次招标无效。</t>
+  </si>
+  <si>
+    <t>监控过程组</t>
+  </si>
+  <si>
+    <t>所有的数据变成信息。均在监控过程组进行。 则数据一般不会为执行过程组的输入</t>
+  </si>
+  <si>
+    <t>成本管理</t>
+  </si>
+  <si>
+    <t>税金</t>
+  </si>
+  <si>
+    <t>间接成本</t>
   </si>
 </sst>
 </file>
@@ -7990,13 +8946,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8006,9 +8965,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8063,9 +9019,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8075,9 +9028,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8090,12 +9040,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8144,9 +9088,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8165,15 +9106,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8183,21 +9118,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8207,12 +9133,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8237,16 +9157,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8495,6 +9409,90 @@
         <a:xfrm>
           <a:off x="5715" y="179070"/>
           <a:ext cx="9482455" cy="5045710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137795</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1094105" y="5545455"/>
+          <a:ext cx="11184890" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385570" y="10238740"/>
+          <a:ext cx="8001000" cy="3717290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8776,485 +9774,485 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.61261261261261" style="86"/>
-    <col min="2" max="2" width="16.4504504504505" style="86" customWidth="1"/>
-    <col min="3" max="3" width="16.7567567567568" style="86" customWidth="1"/>
-    <col min="4" max="5" width="20.9369369369369" style="86" customWidth="1"/>
-    <col min="6" max="6" width="18.8378378378378" style="86" customWidth="1"/>
-    <col min="7" max="7" width="11.8918918918919" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="8.61261261261261" style="86"/>
+    <col min="1" max="1" width="8.61261261261261" style="72"/>
+    <col min="2" max="2" width="16.4504504504505" style="72" customWidth="1"/>
+    <col min="3" max="3" width="16.7567567567568" style="72" customWidth="1"/>
+    <col min="4" max="5" width="20.9369369369369" style="72" customWidth="1"/>
+    <col min="6" max="6" width="18.8378378378378" style="72" customWidth="1"/>
+    <col min="7" max="7" width="11.8918918918919" style="72" customWidth="1"/>
+    <col min="8" max="16384" width="8.61261261261261" style="72"/>
   </cols>
   <sheetData>
     <row r="2" ht="17" spans="2:7">
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.3" spans="2:7">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="17.05" spans="2:7">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="108"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="114"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" ht="17" spans="2:7">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="94"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="111" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
     </row>
     <row r="13" ht="17" spans="2:7">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="95" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="108"/>
+      <c r="G14" s="94"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
     </row>
     <row r="16" ht="17" spans="2:7">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
     </row>
     <row r="17" ht="17" spans="2:7">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="122"/>
+      <c r="G17" s="108"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="95" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="108"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="94"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="124" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="114"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" ht="17" spans="2:7">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="125" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="117"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" ht="17" spans="2:7">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119" t="s">
+      <c r="C21" s="104"/>
+      <c r="D21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="122"/>
+      <c r="G21" s="108"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="95" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="107" t="s">
+      <c r="E22" s="109"/>
+      <c r="F22" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="108"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
     </row>
     <row r="26" ht="17" spans="2:7">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
     </row>
     <row r="27" ht="17" spans="2:7">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="119" t="s">
+      <c r="C27" s="104"/>
+      <c r="D27" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="126" t="s">
+      <c r="G27" s="112" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" ht="17" spans="2:7">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="122"/>
+      <c r="G28" s="108"/>
     </row>
     <row r="29" ht="83" customHeight="1" spans="6:6">
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="131"/>
-      <c r="C32" s="86" t="s">
+      <c r="B32" s="117"/>
+      <c r="C32" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="132" t="s">
+      <c r="D32" s="118" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="131"/>
-      <c r="D33" s="132"/>
+      <c r="B33" s="117"/>
+      <c r="D33" s="118"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="132"/>
+      <c r="D34" s="118"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="131"/>
-      <c r="D35" s="132"/>
+      <c r="B35" s="117"/>
+      <c r="D35" s="118"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="132" t="s">
+      <c r="D36" s="118" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="131"/>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="132" t="s">
+      <c r="D37" s="118" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" ht="48.85" spans="2:4">
-      <c r="B38" s="131"/>
-      <c r="C38" s="86" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="119" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="131"/>
-      <c r="C39" s="86" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="118" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="131"/>
-      <c r="C40" s="86" t="s">
+      <c r="B40" s="117"/>
+      <c r="C40" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="132" t="s">
+      <c r="D40" s="118" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="131"/>
-      <c r="C41" s="86" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="132" t="s">
+      <c r="D41" s="118" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="131"/>
-      <c r="D42" s="132"/>
+      <c r="B42" s="117"/>
+      <c r="D42" s="118"/>
     </row>
     <row r="43" ht="32.55" spans="2:4">
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="132"/>
+      <c r="D43" s="118"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="131"/>
-      <c r="D44" s="132"/>
+      <c r="B44" s="117"/>
+      <c r="D44" s="118"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="132" t="s">
+      <c r="D45" s="118" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" ht="17" spans="2:4">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135" t="s">
+      <c r="B46" s="120"/>
+      <c r="C46" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="136" t="s">
+      <c r="D46" s="122" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9269,18 +10267,18 @@
   <sheetPr/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25"/>
   <cols>
-    <col min="1" max="1" width="1.88288288288288" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.6576576576577" style="4" customWidth="1"/>
+    <col min="1" max="1" width="1.88288288288288" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6576576576577" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.4144144144144" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.3603603603604" style="6" customWidth="1"/>
     <col min="5" max="5" width="26.5855855855856" style="7" customWidth="1"/>
@@ -9299,7 +10297,7 @@
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="16.2" spans="1:16">
+    <row r="1" s="3" customFormat="1" ht="16.2" spans="1:16">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>67</v>
@@ -9351,16 +10349,16 @@
       <c r="H2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" ht="368" customHeight="1" spans="2:16">
       <c r="B3" s="21"/>
@@ -9370,1345 +10368,1345 @@
       <c r="D3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" ht="81.45" spans="2:16">
       <c r="B4" s="21"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="23"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" ht="124" customHeight="1" spans="2:16">
       <c r="B5" s="21"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="23"/>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" ht="162.85" spans="2:16">
       <c r="B6" s="21"/>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:16">
       <c r="B7" s="21"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" ht="145" customHeight="1" spans="2:16">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" ht="377" customHeight="1" spans="2:16">
       <c r="B9" s="21"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" ht="364" customHeight="1" spans="2:16">
       <c r="B10" s="21"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" ht="143.15" spans="2:16">
       <c r="B11" s="21"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="J11" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="N11" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" ht="193.7" spans="2:16">
       <c r="B12" s="21"/>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" ht="108.75" spans="2:16">
-      <c r="B13" s="53"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" ht="234" customHeight="1" spans="2:16">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" ht="198" customHeight="1" spans="2:16">
       <c r="B15" s="21"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="48" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" ht="108" spans="2:16">
       <c r="B16" s="21"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="48" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" ht="207" customHeight="1" spans="2:16">
       <c r="B17" s="21"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="48" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" ht="341" customHeight="1" spans="2:16">
       <c r="B18" s="21"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="48" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" ht="357.85" spans="2:16">
       <c r="B19" s="21"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" ht="114.75" spans="2:16">
-      <c r="B20" s="53"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" ht="117" customHeight="1" spans="2:16">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" ht="179.15" spans="2:16">
-      <c r="B22" s="65"/>
-      <c r="C22" s="41" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="48" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" ht="138.85" spans="2:16">
-      <c r="B23" s="65"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" ht="114.75" spans="2:16">
-      <c r="B24" s="66"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="63" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" ht="369" customHeight="1" spans="2:16">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I25" s="85" t="s">
+      <c r="I25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" ht="77.15" spans="2:16">
       <c r="B26" s="21"/>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="48" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" ht="290" customHeight="1" spans="2:16">
-      <c r="B27" s="53"/>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="31" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" ht="97.7" spans="2:16">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" ht="238" customHeight="1" spans="2:16">
       <c r="B29" s="21"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="48" t="s">
+      <c r="D29" s="42"/>
+      <c r="E29" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="31" t="s">
+      <c r="H29" s="31"/>
+      <c r="I29" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" ht="227.55" spans="2:16">
       <c r="B30" s="21"/>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="48" t="s">
+      <c r="D30" s="42"/>
+      <c r="E30" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" ht="204" customHeight="1" spans="2:16">
-      <c r="B31" s="53"/>
-      <c r="C31" s="69" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="31" t="s">
+      <c r="H31" s="31"/>
+      <c r="I31" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" ht="307" customHeight="1" spans="2:16">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" ht="81.45" spans="2:16">
       <c r="B33" s="21"/>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="48" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" ht="87" customHeight="1" spans="2:16">
-      <c r="B34" s="53"/>
-      <c r="C34" s="52" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="63" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="F34" s="72" t="s">
+      <c r="F34" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="31" t="s">
+      <c r="H34" s="31"/>
+      <c r="I34" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" ht="195" spans="2:16">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" ht="200.55" spans="2:16">
       <c r="B36" s="21"/>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="48" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" ht="209" customHeight="1" spans="2:16">
       <c r="B37" s="21"/>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="48" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" ht="146.55" spans="2:16">
       <c r="B38" s="21"/>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="48" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="31" t="s">
+      <c r="H38" s="31"/>
+      <c r="I38" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" ht="292.7" spans="2:16">
       <c r="B39" s="21"/>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="48" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="31" t="s">
+      <c r="H39" s="31"/>
+      <c r="I39" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="40" ht="114.75" spans="2:16">
-      <c r="B40" s="53"/>
-      <c r="C40" s="52" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="72" t="s">
+      <c r="D40" s="49"/>
+      <c r="E40" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="F40" s="63" t="s">
+      <c r="F40" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="31" t="s">
+      <c r="H40" s="31"/>
+      <c r="I40" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
     </row>
     <row r="41" ht="195" spans="2:16">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="31" t="s">
+      <c r="H41" s="31"/>
+      <c r="I41" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
     </row>
     <row r="42" ht="191" customHeight="1" spans="2:16">
       <c r="B42" s="21"/>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="48" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
     </row>
     <row r="43" ht="186" customHeight="1" spans="2:16">
       <c r="B43" s="21"/>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="61" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="31" t="s">
+      <c r="H43" s="31"/>
+      <c r="I43" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
     </row>
     <row r="44" ht="65.9" spans="2:16">
-      <c r="B44" s="53"/>
-      <c r="C44" s="74" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="63" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="G44" s="70" t="s">
+      <c r="G44" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="I44" s="31" t="s">
+      <c r="I44" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
     </row>
     <row r="45" ht="65.15" spans="2:16">
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="44" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="G45" s="76" t="s">
+      <c r="G45" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
     </row>
     <row r="46" ht="260.15" spans="2:16">
       <c r="B46" s="21"/>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="61" t="s">
+      <c r="D46" s="42"/>
+      <c r="E46" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
     </row>
     <row r="47" ht="81.45" spans="2:16">
       <c r="B47" s="21"/>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="61" t="s">
+      <c r="D47" s="42"/>
+      <c r="E47" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="F47" s="61" t="s">
+      <c r="F47" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="31" t="s">
+      <c r="H47" s="31"/>
+      <c r="I47" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" ht="82.2" spans="2:16">
-      <c r="B48" s="53"/>
-      <c r="C48" s="77" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="72" t="s">
+      <c r="D48" s="49"/>
+      <c r="E48" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="F48" s="72" t="s">
+      <c r="F48" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="G48" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10732,8 +11730,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
@@ -10753,19 +11751,205 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="34.6756756756757" customWidth="1"/>
+    <col min="1" max="1" width="11.7477477477477" customWidth="1"/>
+    <col min="2" max="2" width="18.5495495495495" customWidth="1"/>
+    <col min="3" max="3" width="80.7387387387387" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
+    <row r="1" ht="14.15" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" ht="14.15" spans="1:3">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" ht="14.15" spans="1:3">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" ht="42.45" spans="1:3">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" ht="42.45" spans="2:3">
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3" spans="1:3">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" ht="14.15" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" ht="42.45" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" ht="14.15" spans="1:3">
+      <c r="A12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" ht="14.15" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" ht="14.15" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" ht="14.15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" ht="14.15" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" ht="14.15" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" ht="14.15" spans="1:3">
+      <c r="A19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" ht="14.15" spans="2:3">
+      <c r="B20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" ht="14.15" spans="2:3">
+      <c r="B21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" ht="14.15" spans="2:3">
+      <c r="B22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" ht="14.15" spans="1:3">
+      <c r="A24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" ht="14.15" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" ht="14.15" spans="1:3">
+      <c r="A26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" ht="14.15" spans="1:3">
+      <c r="A28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" ht="14.15" spans="1:3">
+      <c r="A30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
